--- a/data/trans_bre/P1402-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P1402-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-2.741070041262956</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-5.78744002984929</v>
+        <v>-5.787440029849289</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.6253502761125571</v>
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.117991672762611</v>
+        <v>-5.753049518084062</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.222904078836718</v>
+        <v>-3.360621725937327</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-6.62720164830554</v>
+        <v>-6.325240381286973</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-8.771361154874882</v>
+        <v>-8.559969155079896</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.8837533909950371</v>
+        <v>-0.8705719939935763</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.6210372912361518</v>
+        <v>-0.6406119017597787</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.6802009890119806</v>
+        <v>-0.6836001485092383</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.776232879773424</v>
+        <v>-0.7689918691095565</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.7509140675973086</v>
+        <v>-0.7211182138913651</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.829037376884317</v>
+        <v>2.49189330658786</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9488983463941515</v>
+        <v>0.760688126464251</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-3.432160004438041</v>
+        <v>-3.224163533339892</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.1232512639895155</v>
+        <v>-0.1344647425078522</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.256491141413185</v>
+        <v>0.9055494160238133</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2040054923158518</v>
+        <v>0.184001668526888</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.4325172682476595</v>
+        <v>-0.4086778564635428</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-4.177635758707392</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-6.221057832460265</v>
+        <v>-6.221057832460264</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.5312976106688206</v>
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-5.091002671306058</v>
+        <v>-5.544046536400839</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-5.672265274570611</v>
+        <v>-5.535747950903161</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-7.526929593410142</v>
+        <v>-7.491914379407907</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-9.244946778838118</v>
+        <v>-9.048401974034146</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.826901614005069</v>
+        <v>-0.8442699244582929</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.8251826515691383</v>
+        <v>-0.7966954703064236</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.8252666892443624</v>
+        <v>-0.8193308533353368</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.850136544477914</v>
+        <v>-0.8343417968316551</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3386952281463659</v>
+        <v>-0.1109680513446751</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3019776038527907</v>
+        <v>0.1958679856907574</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-0.9995861116414965</v>
+        <v>-0.6105829754506411</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-3.886579591917156</v>
+        <v>-3.700939909180771</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1378266844496691</v>
+        <v>0.033545763535304</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1445588357501101</v>
+        <v>0.09314039155742589</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.1040076192895241</v>
+        <v>-0.03359524561622971</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.5363549295090001</v>
+        <v>-0.5140830783896905</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-4.286065024625869</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-1.464101606873514</v>
+        <v>-1.464101606873515</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5961756623117533</v>
@@ -849,7 +849,7 @@
         <v>-0.4198325932387075</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.1276523415427094</v>
+        <v>-0.1276523415427095</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.8877133285128855</v>
+        <v>-0.7537350635522159</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-9.285570947925512</v>
+        <v>-9.119936526725072</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-8.175072641762563</v>
+        <v>-8.46412527362255</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.635217722925538</v>
+        <v>-5.330058618937372</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1654723626742488</v>
+        <v>-0.1431942757526595</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.7038679256761868</v>
+        <v>-0.6939578545437695</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.7369077678786313</v>
+        <v>-0.7240900319041431</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.4390920640039366</v>
+        <v>-0.4189942299685925</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.657614189230415</v>
+        <v>7.785197874080819</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.8535912846330892</v>
+        <v>-1.143856413067884</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.596723492850262</v>
+        <v>1.174417415904552</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.759281884845679</v>
+        <v>3.305335004434242</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.14222644629406</v>
+        <v>1.871632269145814</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.05899536889474812</v>
+        <v>-0.1039270761524371</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1746320748192743</v>
+        <v>0.1601535820115357</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.2862841850377706</v>
+        <v>0.3383070047156098</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-5.107728772621191</v>
+        <v>-5.084580198530023</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-5.539660034463636</v>
+        <v>-5.658792815539585</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-8.116398290347165</v>
+        <v>-7.92541756864037</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-7.568657016746425</v>
+        <v>-7.844526578174853</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5830857594597332</v>
+        <v>-0.6046427005841938</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5503236793109929</v>
+        <v>-0.5597386897424319</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.7287646876327073</v>
+        <v>-0.7325326943139651</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5941539345460218</v>
+        <v>-0.6001680399065232</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-0.7593875891778653</v>
+        <v>-0.8235656985805744</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-0.8068844128809644</v>
+        <v>-1.044982778624385</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-3.641415367090167</v>
+        <v>-3.584258737261956</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-3.463633859146223</v>
+        <v>-3.541523551052201</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.1042791829345472</v>
+        <v>-0.1149504635751768</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.0989383333513969</v>
+        <v>-0.1103134096371427</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.3998176466633138</v>
+        <v>-0.4095433173728789</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.3210926816962996</v>
+        <v>-0.3341713063711026</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-1.38363031323025</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2.960807820167939</v>
+        <v>2.960807820167941</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.03171057879801061</v>
@@ -1049,7 +1049,7 @@
         <v>-0.1240169120505971</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.3470531096805278</v>
+        <v>0.347053109680528</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.784043141134622</v>
+        <v>-3.459994428327555</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.619647746121237</v>
+        <v>-0.6253603035837751</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-4.671772342044831</v>
+        <v>-4.884540349956673</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2824292051583971</v>
+        <v>0.5347388061638103</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.4443541802778192</v>
+        <v>-0.4253008433428603</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.09611303994537206</v>
+        <v>-0.08139224303762772</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.3621205050913368</v>
+        <v>-0.3816265390108043</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.02341498069370846</v>
+        <v>0.04502623164160611</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.834987947920575</v>
+        <v>2.81764687255095</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.450387626245726</v>
+        <v>5.788887937322307</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.942723908981959</v>
+        <v>1.533507817706535</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.615580518747534</v>
+        <v>5.785047436127996</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.6045782636917081</v>
+        <v>0.6328747672409401</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.038443864564923</v>
+        <v>1.12835646515662</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1965206772641491</v>
+        <v>0.1722318599673882</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.8209333062188713</v>
+        <v>0.8503750295852921</v>
       </c>
     </row>
     <row r="19">
@@ -1162,26 +1162,26 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>9.101554840179302</v>
+        <v>8.963654063629944</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>8.902024418591148</v>
+        <v>8.64770459677759</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>10.27352026173461</v>
+        <v>10.22058628995332</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8.61390542006678</v>
+        <v>8.584616987436739</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="n">
-        <v>1.742121196558455</v>
+        <v>1.585295268816727</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>3.037312462137362</v>
+        <v>2.863125854452508</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>2.849767412873212</v>
+        <v>3.341299197315282</v>
       </c>
     </row>
     <row r="21">
@@ -1192,26 +1192,26 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>12.57063958114022</v>
+        <v>12.38998990277428</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>14.74889056205929</v>
+        <v>14.48189661467659</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>15.53550396664978</v>
+        <v>15.62608894398612</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>12.4781635761397</v>
+        <v>12.47939647873872</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="n">
-        <v>19.46985377850319</v>
+        <v>17.91282845070649</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>37.76221643969392</v>
+        <v>38.942437938571</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>52.70583987029146</v>
+        <v>49.44823023924172</v>
       </c>
     </row>
     <row r="22">
@@ -1235,7 +1235,7 @@
         <v>-0.4087130370806644</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-1.55519986932971</v>
+        <v>-1.555199869329707</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1965691665696683</v>
@@ -1247,7 +1247,7 @@
         <v>-0.04648017433788276</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.1640392017579437</v>
+        <v>-0.1640392017579434</v>
       </c>
     </row>
     <row r="23">
@@ -1258,28 +1258,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.03301865405915787</v>
+        <v>-0.006963506683729324</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.2006307715939892</v>
+        <v>-0.1621229598505336</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.891296270176762</v>
+        <v>-1.680133967932788</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.804149963455772</v>
+        <v>-2.71547408427277</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.01301875890889825</v>
+        <v>-0.005316032395358699</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.02148206959630929</v>
+        <v>-0.02068140970726907</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.1967032860161996</v>
+        <v>-0.1791862984152659</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.2701960962909404</v>
+        <v>-0.2669853135073195</v>
       </c>
     </row>
     <row r="24">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.284314316647195</v>
+        <v>2.207085773284676</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.528262141420992</v>
+        <v>2.535173170873271</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8918518366165031</v>
+        <v>1.049265887627566</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-0.4352207600055698</v>
+        <v>-0.4426607485643307</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.4491544515397941</v>
+        <v>0.4257908300329567</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3750041624453958</v>
+        <v>0.3750415741398399</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1113952289600682</v>
+        <v>0.1297853906517088</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>-0.04952201440456014</v>
+        <v>-0.05120078343207825</v>
       </c>
     </row>
     <row r="25">
